--- a/Python/Pattern_Recognition/data.xlsx
+++ b/Python/Pattern_Recognition/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dabee\OneDrive\바탕 화면\Git\TIL\Python\Pattern_Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5294F-0770-40CE-A346-1EF16A044330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA91028-3747-42FC-B1DF-D470CDC1A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="804" windowWidth="14208" windowHeight="11724" xr2:uid="{FDF3B275-08D8-46E5-9616-1F934009A94E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDF3B275-08D8-46E5-9616-1F934009A94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4378440-DAD4-4BB3-B4B4-5B986EAFA0C3}">
   <dimension ref="A1:C4201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3001"/>
+    <sheetView tabSelected="1" topLeftCell="A2990" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -412,7 +412,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1753.5</v>
+        <v>1824.2</v>
       </c>
       <c r="B2">
         <v>1880.6</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1753.2</v>
+        <v>1824.9</v>
       </c>
       <c r="B3">
         <v>1881.2</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1752.8</v>
+        <v>1825.2</v>
       </c>
       <c r="B4">
         <v>1882.5</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1752.6</v>
+        <v>1825.5</v>
       </c>
       <c r="B5">
         <v>1883.2</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1753.1</v>
+        <v>1825.3</v>
       </c>
       <c r="B6">
         <v>1882.6</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1754.9</v>
+        <v>1825</v>
       </c>
       <c r="B7">
         <v>1892.6</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1755.4</v>
+        <v>1825.5</v>
       </c>
       <c r="B8">
         <v>1891.8</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1755.7</v>
+        <v>1825.3</v>
       </c>
       <c r="B9">
         <v>1902.2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1754.1</v>
+        <v>1825</v>
       </c>
       <c r="B10">
         <v>1900.7</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1755.6</v>
+        <v>1824.3</v>
       </c>
       <c r="B11">
         <v>1899.3</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1755.8</v>
+        <v>1824.8</v>
       </c>
       <c r="B12">
         <v>1899.1</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1756.3</v>
+        <v>1824.9</v>
       </c>
       <c r="B13">
         <v>1894.7</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1758.8</v>
+        <v>1824.9</v>
       </c>
       <c r="B14">
         <v>1891</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1759.2</v>
+        <v>1825.2</v>
       </c>
       <c r="B15">
         <v>1888.9</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1758.3</v>
+        <v>1825.3</v>
       </c>
       <c r="B16">
         <v>1887.3</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1756.8</v>
+        <v>1825.5</v>
       </c>
       <c r="B17">
         <v>1889.3</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1756.8</v>
+        <v>1825.9</v>
       </c>
       <c r="B18">
         <v>1883.6</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1755.9</v>
+        <v>1825.8</v>
       </c>
       <c r="B19">
         <v>1876.5</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1756.4</v>
+        <v>1825.8</v>
       </c>
       <c r="B20">
         <v>1879.9</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1757.5</v>
+        <v>1826.5</v>
       </c>
       <c r="B21">
         <v>1892.3</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1757.2</v>
+        <v>1827.2</v>
       </c>
       <c r="B22">
         <v>1898.7</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1757.1</v>
+        <v>1827.5</v>
       </c>
       <c r="B23">
         <v>1885.1</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1756.9</v>
+        <v>1827.5</v>
       </c>
       <c r="B24">
         <v>1883.4</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1756.7</v>
+        <v>1828.3</v>
       </c>
       <c r="B25">
         <v>1880.3</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1756.2</v>
+        <v>1828.1</v>
       </c>
       <c r="B26">
         <v>1879.4</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1755.6</v>
+        <v>1828.4</v>
       </c>
       <c r="B27">
         <v>1879.6</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1754.9</v>
+        <v>1828.8</v>
       </c>
       <c r="B28">
         <v>1877.5</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1754.2</v>
+        <v>1829</v>
       </c>
       <c r="B29">
         <v>1877.2</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1753.6</v>
+        <v>1828.6</v>
       </c>
       <c r="B30">
         <v>1880.5</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1753.4</v>
+        <v>1827.8</v>
       </c>
       <c r="B31">
         <v>1882.3</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1753.7</v>
+        <v>1828.6</v>
       </c>
       <c r="B32">
         <v>1882.1</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1752.8</v>
+        <v>1828.9</v>
       </c>
       <c r="B33">
         <v>1881.5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1752</v>
+        <v>1829.1</v>
       </c>
       <c r="B34">
         <v>1883.2</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1751.4</v>
+        <v>1828.1</v>
       </c>
       <c r="B35">
         <v>1881.2</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1751.3</v>
+        <v>1827.6</v>
       </c>
       <c r="B36">
         <v>1881</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1751.7</v>
+        <v>1827.5</v>
       </c>
       <c r="B37">
         <v>1881.7</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1752.6</v>
+        <v>1828.2</v>
       </c>
       <c r="B38">
         <v>1882.9</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1752.1</v>
+        <v>1827.7</v>
       </c>
       <c r="B39">
         <v>1881.5</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1750.3</v>
+        <v>1826.5</v>
       </c>
       <c r="B40">
         <v>1885.9</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1751.6</v>
+        <v>1826.3</v>
       </c>
       <c r="B41">
         <v>1882</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1751.8</v>
+        <v>1826</v>
       </c>
       <c r="B42">
         <v>1881.8</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1748.4</v>
+        <v>1825.2</v>
       </c>
       <c r="B43">
         <v>1882.2</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1749.2</v>
+        <v>1825.2</v>
       </c>
       <c r="B44">
         <v>1884.2</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1751.1</v>
+        <v>1825</v>
       </c>
       <c r="B45">
         <v>1882.9</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1750.6</v>
+        <v>1824.1</v>
       </c>
       <c r="B46">
         <v>1883.7</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1750.8</v>
+        <v>1823.9</v>
       </c>
       <c r="B47">
         <v>1885.7</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1749.4</v>
+        <v>1824.4</v>
       </c>
       <c r="B48">
         <v>1883.3</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1750.4</v>
+        <v>1823.4</v>
       </c>
       <c r="B49">
         <v>1882</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1745.4</v>
+        <v>1823.5</v>
       </c>
       <c r="B50">
         <v>1882.7</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1748.6</v>
+        <v>1822.9</v>
       </c>
       <c r="B51">
         <v>1882.6</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1749.1</v>
+        <v>1823.1</v>
       </c>
       <c r="B52">
         <v>1882.5</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1750.3</v>
+        <v>1821.8</v>
       </c>
       <c r="B53">
         <v>1882.5</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1749.1</v>
+        <v>1821.2</v>
       </c>
       <c r="B54">
         <v>1883.5</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1747.8</v>
+        <v>1819.8</v>
       </c>
       <c r="B55">
         <v>1886.8</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1747.4</v>
+        <v>1820.4</v>
       </c>
       <c r="B56">
         <v>1887.2</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1748.8</v>
+        <v>1818.9</v>
       </c>
       <c r="B57">
         <v>1888.1</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1749.6</v>
+        <v>1819.3</v>
       </c>
       <c r="B58">
         <v>1889.4</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1748.8</v>
+        <v>1818.8</v>
       </c>
       <c r="B59">
         <v>1885.9</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1750.3</v>
+        <v>1819.2</v>
       </c>
       <c r="B60">
         <v>1886.4</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1751.9</v>
+        <v>1819.4</v>
       </c>
       <c r="B61">
         <v>1882.5</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1751.2</v>
+        <v>1820.6</v>
       </c>
       <c r="B62">
         <v>1881.8</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1752.8</v>
+        <v>1819.8</v>
       </c>
       <c r="B63">
         <v>1882.3</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1753.1</v>
+        <v>1822</v>
       </c>
       <c r="B64">
         <v>1883.1</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1753.9</v>
+        <v>1822.5</v>
       </c>
       <c r="B65">
         <v>1882.2</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1754.3</v>
+        <v>1821.3</v>
       </c>
       <c r="B66">
         <v>1883.8</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1753.5</v>
+        <v>1820.9</v>
       </c>
       <c r="B67">
         <v>1887.7</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1752.9</v>
+        <v>1819.6</v>
       </c>
       <c r="B68">
         <v>1891.7</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1752.5</v>
+        <v>1817.3</v>
       </c>
       <c r="B69">
         <v>1889.1</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1752.6</v>
+        <v>1815.3</v>
       </c>
       <c r="B70">
         <v>1890.8</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1752.4</v>
+        <v>1816.5</v>
       </c>
       <c r="B71">
         <v>1893.1</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1752.3</v>
+        <v>1816.7</v>
       </c>
       <c r="B72">
         <v>1895</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1751.9</v>
+        <v>1815.4</v>
       </c>
       <c r="B73">
         <v>1894</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1752</v>
+        <v>1816.6</v>
       </c>
       <c r="B74">
         <v>1897.7</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1752.4</v>
+        <v>1815.7</v>
       </c>
       <c r="B75">
         <v>1898.6</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1753</v>
+        <v>1815.9</v>
       </c>
       <c r="B76">
         <v>1899.5</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1753.2</v>
+        <v>1814</v>
       </c>
       <c r="B77">
         <v>1900.3</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1753.2</v>
+        <v>1813.9</v>
       </c>
       <c r="B78">
         <v>1901.1</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1754.3</v>
+        <v>1813.6</v>
       </c>
       <c r="B79">
         <v>1895.5</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1754.1</v>
+        <v>1812.4</v>
       </c>
       <c r="B80">
         <v>1892.9</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1754</v>
+        <v>1812</v>
       </c>
       <c r="B81">
         <v>1892.7</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1753.1</v>
+        <v>1813.2</v>
       </c>
       <c r="B82">
         <v>1894.1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1753.4</v>
+        <v>1813.5</v>
       </c>
       <c r="B83">
         <v>1892.2</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1754.4</v>
+        <v>1811.9</v>
       </c>
       <c r="B84">
         <v>1896.7</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1754.3</v>
+        <v>1813.1</v>
       </c>
       <c r="B85">
         <v>1897.6</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1754.6</v>
+        <v>1812.3</v>
       </c>
       <c r="B86">
         <v>1898.7</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1755.1</v>
+        <v>1812.1</v>
       </c>
       <c r="B87">
         <v>1897.2</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1755</v>
+        <v>1811.1</v>
       </c>
       <c r="B88">
         <v>1897.9</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1754.8</v>
+        <v>1812.2</v>
       </c>
       <c r="B89">
         <v>1897.9</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1754.8</v>
+        <v>1811.6</v>
       </c>
       <c r="B90">
         <v>1902.4</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1754.7</v>
+        <v>1811.5</v>
       </c>
       <c r="B91">
         <v>1896.8</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1754.9</v>
+        <v>1812.8</v>
       </c>
       <c r="B92">
         <v>1903</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1754.7</v>
+        <v>1814</v>
       </c>
       <c r="B93">
         <v>1899.7</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1754.2</v>
+        <v>1814.2</v>
       </c>
       <c r="B94">
         <v>1898.1</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1754.8</v>
+        <v>1814.5</v>
       </c>
       <c r="B95">
         <v>1897.3</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1754.3</v>
+        <v>1814.7</v>
       </c>
       <c r="B96">
         <v>1900.4</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1754.7</v>
+        <v>1812</v>
       </c>
       <c r="B97">
         <v>1903.7</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1754.9</v>
+        <v>1810.9</v>
       </c>
       <c r="B98">
         <v>1901.6</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1755.1</v>
+        <v>1813.1</v>
       </c>
       <c r="B99">
         <v>1917.4</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1755.2</v>
+        <v>1813.4</v>
       </c>
       <c r="B100">
         <v>1917.9</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1755.3</v>
+        <v>1814.7</v>
       </c>
       <c r="B101">
         <v>1921.5</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1755.1</v>
+        <v>1816.5</v>
       </c>
       <c r="B102">
         <v>1925.7</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1754.9</v>
+        <v>1812.2</v>
       </c>
       <c r="B103">
         <v>1927.4</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1755</v>
+        <v>1811.8</v>
       </c>
       <c r="B104">
         <v>1926.9</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1754.5</v>
+        <v>1803.1</v>
       </c>
       <c r="B105">
         <v>1926.1</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1754.9</v>
+        <v>1798.6</v>
       </c>
       <c r="B106">
         <v>1927.4</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1754.1</v>
+        <v>1797.6</v>
       </c>
       <c r="B107">
         <v>1928.8</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1754.1</v>
+        <v>1800.8</v>
       </c>
       <c r="B108">
         <v>1936.4</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1754.3</v>
+        <v>1798.5</v>
       </c>
       <c r="B109">
         <v>1936.2</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1754.7</v>
+        <v>1798.5</v>
       </c>
       <c r="B110">
         <v>1937.9</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1754.7</v>
+        <v>1796.2</v>
       </c>
       <c r="B111">
         <v>1937.8</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1754.6</v>
+        <v>1795.7</v>
       </c>
       <c r="B112">
         <v>1935.8</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1753.3</v>
+        <v>1796.7</v>
       </c>
       <c r="B113">
         <v>1944.3</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1754.6</v>
+        <v>1798.3</v>
       </c>
       <c r="B114">
         <v>1945.6</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1756</v>
+        <v>1799.7</v>
       </c>
       <c r="B115">
         <v>1947.3</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1755.9</v>
+        <v>1799.2</v>
       </c>
       <c r="B116">
         <v>1944.3</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1756.2</v>
+        <v>1798.5</v>
       </c>
       <c r="B117">
         <v>1941.2</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1755.4</v>
+        <v>1797.7</v>
       </c>
       <c r="B118">
         <v>1948.1</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1755.4</v>
+        <v>1796.9</v>
       </c>
       <c r="B119">
         <v>1946.9</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1756.6</v>
+        <v>1797.9</v>
       </c>
       <c r="B120">
         <v>1947.9</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1756.7</v>
+        <v>1798.3</v>
       </c>
       <c r="B121">
         <v>1946.7</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1756.7</v>
+        <v>1798</v>
       </c>
       <c r="B122">
         <v>1945.5</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1758.1</v>
+        <v>1798.5</v>
       </c>
       <c r="B123">
         <v>1942.7</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1756.7</v>
+        <v>1798.9</v>
       </c>
       <c r="B124">
         <v>1941</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>1757.4</v>
+        <v>1798.4</v>
       </c>
       <c r="B125">
         <v>1942.8</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1757</v>
+        <v>1797.8</v>
       </c>
       <c r="B126">
         <v>1945</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>1756.5</v>
+        <v>1798.5</v>
       </c>
       <c r="B127">
         <v>1943.9</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>1756.6</v>
+        <v>1798.6</v>
       </c>
       <c r="B128">
         <v>1942.4</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>1756.5</v>
+        <v>1799.5</v>
       </c>
       <c r="B129">
         <v>1944.5</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>1756.5</v>
+        <v>1800</v>
       </c>
       <c r="B130">
         <v>1943.3</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>1756.1</v>
+        <v>1800.2</v>
       </c>
       <c r="B131">
         <v>1946.1</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>1756.1</v>
+        <v>1799.4</v>
       </c>
       <c r="B132">
         <v>1949.5</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>1756.4</v>
+        <v>1799.1</v>
       </c>
       <c r="B133">
         <v>1950.8</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1756.4</v>
+        <v>1798.3</v>
       </c>
       <c r="B134">
         <v>1953.8</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>1756.2</v>
+        <v>1798.6</v>
       </c>
       <c r="B135">
         <v>1952.5</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>1756.6</v>
+        <v>1798.2</v>
       </c>
       <c r="B136">
         <v>1952.9</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>1756.6</v>
+        <v>1797.4</v>
       </c>
       <c r="B137">
         <v>1948.8</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>1757.5</v>
+        <v>1796.6</v>
       </c>
       <c r="B138">
         <v>1946.4</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>1756.1</v>
+        <v>1796.6</v>
       </c>
       <c r="B139">
         <v>1953.8</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>1757.3</v>
+        <v>1795.6</v>
       </c>
       <c r="B140">
         <v>1953.4</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>1757.6</v>
+        <v>1795.8</v>
       </c>
       <c r="B141">
         <v>1954.8</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>1757</v>
+        <v>1796</v>
       </c>
       <c r="B142">
         <v>1954.7</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>1758.2</v>
+        <v>1796</v>
       </c>
       <c r="B143">
         <v>1953</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>1758.5</v>
+        <v>1795.2</v>
       </c>
       <c r="B144">
         <v>1953.7</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>1760.1</v>
+        <v>1795.5</v>
       </c>
       <c r="B145">
         <v>1954</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>1759.6</v>
+        <v>1796.1</v>
       </c>
       <c r="B146">
         <v>1955.2</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>1760.2</v>
+        <v>1796.9</v>
       </c>
       <c r="B147">
         <v>1951.1</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>1758</v>
+        <v>1797.1</v>
       </c>
       <c r="B148">
         <v>1947.4</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>1759.7</v>
+        <v>1797</v>
       </c>
       <c r="B149">
         <v>1945.3</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>1760.5</v>
+        <v>1797.1</v>
       </c>
       <c r="B150">
         <v>1948.1</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>1759.5</v>
+        <v>1797.1</v>
       </c>
       <c r="B151">
         <v>1946.8</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>1758.6</v>
+        <v>1797.1</v>
       </c>
       <c r="B152">
         <v>1948</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>1759.1</v>
+        <v>1796.6</v>
       </c>
       <c r="B153">
         <v>1951.3</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1758.9</v>
+        <v>1796.7</v>
       </c>
       <c r="B154">
         <v>1956.3</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1757.7</v>
+        <v>1796.9</v>
       </c>
       <c r="B155">
         <v>1960.9</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1757.8</v>
+        <v>1796.9</v>
       </c>
       <c r="B156">
         <v>1959.7</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1757.6</v>
+        <v>1797.4</v>
       </c>
       <c r="B157">
         <v>1948.2</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1757.3</v>
+        <v>1797.5</v>
       </c>
       <c r="B158">
         <v>1935.9</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>1757.9</v>
+        <v>1798</v>
       </c>
       <c r="B159">
         <v>1935.3</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>1757.3</v>
+        <v>1798.3</v>
       </c>
       <c r="B160">
         <v>1934.6</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>1757.7</v>
+        <v>1798.2</v>
       </c>
       <c r="B161">
         <v>1911.5</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>1758.2</v>
+        <v>1799</v>
       </c>
       <c r="B162">
         <v>1909.9</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1758.7</v>
+        <v>1800.1</v>
       </c>
       <c r="B163">
         <v>1909.2</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>1759.6</v>
+        <v>1800.2</v>
       </c>
       <c r="B164">
         <v>1913.3</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1759.4</v>
+        <v>1799.6</v>
       </c>
       <c r="B165">
         <v>1919.7</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1759.6</v>
+        <v>1798.9</v>
       </c>
       <c r="B166">
         <v>1919.5</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>1761</v>
+        <v>1798.7</v>
       </c>
       <c r="B167">
         <v>1920.2</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>1761.4</v>
+        <v>1798.9</v>
       </c>
       <c r="B168">
         <v>1925.3</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>1761.3</v>
+        <v>1800.3</v>
       </c>
       <c r="B169">
         <v>1920.4</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>1762.2</v>
+        <v>1800</v>
       </c>
       <c r="B170">
         <v>1919.8</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>1761.9</v>
+        <v>1800.5</v>
       </c>
       <c r="B171">
         <v>1917.1</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>1761.3</v>
+        <v>1800.7</v>
       </c>
       <c r="B172">
         <v>1919</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>1760.8</v>
+        <v>1801.4</v>
       </c>
       <c r="B173">
         <v>1919.3</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>1761.1</v>
+        <v>1801.9</v>
       </c>
       <c r="B174">
         <v>1922.5</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>1761</v>
+        <v>1802.3</v>
       </c>
       <c r="B175">
         <v>1928.3</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>1761.9</v>
+        <v>1802</v>
       </c>
       <c r="B176">
         <v>1921.8</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>1760.5</v>
+        <v>1801.8</v>
       </c>
       <c r="B177">
         <v>1919.2</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>1760.5</v>
+        <v>1800.5</v>
       </c>
       <c r="B178">
         <v>1916.8</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>1760.1</v>
+        <v>1799.6</v>
       </c>
       <c r="B179">
         <v>1913.2</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>1758.5</v>
+        <v>1799.2</v>
       </c>
       <c r="B180">
         <v>1919.5</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>1760.7</v>
+        <v>1799.9</v>
       </c>
       <c r="B181">
         <v>1918.6</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>1762</v>
+        <v>1799.7</v>
       </c>
       <c r="B182">
         <v>1914</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>1762.3</v>
+        <v>1799.5</v>
       </c>
       <c r="B183">
         <v>1911.3</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>1764.2</v>
+        <v>1799.3</v>
       </c>
       <c r="B184">
         <v>1914.6</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>1763.9</v>
+        <v>1799.2</v>
       </c>
       <c r="B185">
         <v>1914.1</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>1765.1</v>
+        <v>1799.5</v>
       </c>
       <c r="B186">
         <v>1912</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>1765.6</v>
+        <v>1799.8</v>
       </c>
       <c r="B187">
         <v>1916.3</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>1765.6</v>
+        <v>1799.9</v>
       </c>
       <c r="B188">
         <v>1917.9</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>1764.9</v>
+        <v>1799.3</v>
       </c>
       <c r="B189">
         <v>1914.1</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>1766.7</v>
+        <v>1798.8</v>
       </c>
       <c r="B190">
         <v>1914.8</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>1775.5</v>
+        <v>1799.1</v>
       </c>
       <c r="B191">
         <v>1917.1</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>1774.8</v>
+        <v>1799.2</v>
       </c>
       <c r="B192">
         <v>1914</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>1771.7</v>
+        <v>1798.7</v>
       </c>
       <c r="B193">
         <v>1911.7</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>1773.2</v>
+        <v>1797.9</v>
       </c>
       <c r="B194">
         <v>1912.8</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>1773.5</v>
+        <v>1797.6</v>
       </c>
       <c r="B195">
         <v>1911.3</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>1775.1</v>
+        <v>1799</v>
       </c>
       <c r="B196">
         <v>1909.8</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>1775.1</v>
+        <v>1797</v>
       </c>
       <c r="B197">
         <v>1908.7</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>1775.6</v>
+        <v>1797.6</v>
       </c>
       <c r="B198">
         <v>1907.9</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>1776.8</v>
+        <v>1796.6</v>
       </c>
       <c r="B199">
         <v>1905.8</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>1779</v>
+        <v>1797.5</v>
       </c>
       <c r="B200">
         <v>1889.2</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>1778.6</v>
+        <v>1799.8</v>
       </c>
       <c r="B201">
         <v>1892.3</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>1778.5</v>
+        <v>1801</v>
       </c>
       <c r="B202">
         <v>1891.5</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>1780.4</v>
+        <v>1801.3</v>
       </c>
       <c r="B203">
         <v>1894.5</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>1780.4</v>
+        <v>1802.1</v>
       </c>
       <c r="B204">
         <v>1889.3</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>1780.5</v>
+        <v>1800.4</v>
       </c>
       <c r="B205">
         <v>1891.2</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>1779.3</v>
+        <v>1800.9</v>
       </c>
       <c r="B206">
         <v>1864.6</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>1778.6</v>
+        <v>1800.3</v>
       </c>
       <c r="B207">
         <v>1862.5</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>1778.4</v>
+        <v>1800.1</v>
       </c>
       <c r="B208">
         <v>1855.4</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>1779.2</v>
+        <v>1800.7</v>
       </c>
       <c r="B209">
         <v>1843.4</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>1778.9</v>
+        <v>1800.9</v>
       </c>
       <c r="B210">
         <v>1837.8</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>1778.2</v>
+        <v>1800.8</v>
       </c>
       <c r="B211">
         <v>1846.2</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>1777.8</v>
+        <v>1800.8</v>
       </c>
       <c r="B212">
         <v>1847.6</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>1778.8</v>
+        <v>1800.6</v>
       </c>
       <c r="B213">
         <v>1849.9</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>1779.4</v>
+        <v>1799.6</v>
       </c>
       <c r="B214">
         <v>1844.3</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>1780</v>
+        <v>1799.5</v>
       </c>
       <c r="B215">
         <v>1841.2</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>1779.9</v>
+        <v>1800.5</v>
       </c>
       <c r="B216">
         <v>1827.9</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>1779.9</v>
+        <v>1799.8</v>
       </c>
       <c r="B217">
         <v>1835.2</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>1779.9</v>
+        <v>1799</v>
       </c>
       <c r="B218">
         <v>1830.4</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>1779.9</v>
+        <v>1799.4</v>
       </c>
       <c r="B219">
         <v>1833</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>1778.7</v>
+        <v>1798.9</v>
       </c>
       <c r="B220">
         <v>1840</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>1777.9</v>
+        <v>1799.6</v>
       </c>
       <c r="B221">
         <v>1845.7</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>1779</v>
+        <v>1799.8</v>
       </c>
       <c r="B222">
         <v>1846</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>1778.9</v>
+        <v>1799.9</v>
       </c>
       <c r="B223">
         <v>1849.1</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>1779.3</v>
+        <v>1799.9</v>
       </c>
       <c r="B224">
         <v>1848.2</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>1779.8</v>
+        <v>1801.5</v>
       </c>
       <c r="B225">
         <v>1851.8</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>1780.6</v>
+        <v>1801.7</v>
       </c>
       <c r="B226">
         <v>1849.1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>1780.2</v>
+        <v>1801.4</v>
       </c>
       <c r="B227">
         <v>1842</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>1780</v>
+        <v>1801</v>
       </c>
       <c r="B228">
         <v>1834.2</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>1779.7</v>
+        <v>1800</v>
       </c>
       <c r="B229">
         <v>1842.1</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>1780.5</v>
+        <v>1798.9</v>
       </c>
       <c r="B230">
         <v>1849.1</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>1781</v>
+        <v>1802.7</v>
       </c>
       <c r="B231">
         <v>1849.3</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>1781.5</v>
+        <v>1803.3</v>
       </c>
       <c r="B232">
         <v>1848.8</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>1780.4</v>
+        <v>1802.2</v>
       </c>
       <c r="B233">
         <v>1847.4</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>1780.7</v>
+        <v>1800.8</v>
       </c>
       <c r="B234">
         <v>1847.5</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>1780.4</v>
+        <v>1800.7</v>
       </c>
       <c r="B235">
         <v>1845.5</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>1780.8</v>
+        <v>1798.7</v>
       </c>
       <c r="B236">
         <v>1843.8</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>1780.7</v>
+        <v>1797.9</v>
       </c>
       <c r="B237">
         <v>1847.6</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>1780.7</v>
+        <v>1798.5</v>
       </c>
       <c r="B238">
         <v>1845</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>1781.4</v>
+        <v>1798.1</v>
       </c>
       <c r="B239">
         <v>1845.8</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>1781.1</v>
+        <v>1796.4</v>
       </c>
       <c r="B240">
         <v>1847.5</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>1780.6</v>
+        <v>1785.3</v>
       </c>
       <c r="B241">
         <v>1850.1</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>1780.6</v>
+        <v>1790.9</v>
       </c>
       <c r="B242">
         <v>1850.9</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>1780.7</v>
+        <v>1791.1</v>
       </c>
       <c r="B243">
         <v>1858.6</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>1780.2</v>
+        <v>1791.5</v>
       </c>
       <c r="B244">
         <v>1859.8</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>1780.3</v>
+        <v>1786.9</v>
       </c>
       <c r="B245">
         <v>1859.2</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>1780.9</v>
+        <v>1787.7</v>
       </c>
       <c r="B246">
         <v>1855.7</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>1780.1</v>
+        <v>1789.1</v>
       </c>
       <c r="B247">
         <v>1862.8</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>1779.9</v>
+        <v>1790.6</v>
       </c>
       <c r="B248">
         <v>1859.6</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>1781</v>
+        <v>1795.4</v>
       </c>
       <c r="B249">
         <v>1859.9</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>1782.3</v>
+        <v>1794.7</v>
       </c>
       <c r="B250">
         <v>1859.7</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>1784.2</v>
+        <v>1793.6</v>
       </c>
       <c r="B251">
         <v>1843.5</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>1782.8</v>
+        <v>1793.8</v>
       </c>
       <c r="B252">
         <v>1840.8</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>1783.2</v>
+        <v>1795.1</v>
       </c>
       <c r="B253">
         <v>1841.2</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>1781.7</v>
+        <v>1794</v>
       </c>
       <c r="B254">
         <v>1843.3</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>1781.5</v>
+        <v>1794.3</v>
       </c>
       <c r="B255">
         <v>1839.1</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>1779</v>
+        <v>1794.8</v>
       </c>
       <c r="B256">
         <v>1847.5</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>1780.4</v>
+        <v>1794.2</v>
       </c>
       <c r="B257">
         <v>1854.6</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>1779.1</v>
+        <v>1793.6</v>
       </c>
       <c r="B258">
         <v>1856</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>1779.3</v>
+        <v>1793.6</v>
       </c>
       <c r="B259">
         <v>1854.8</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>1781</v>
+        <v>1793.1</v>
       </c>
       <c r="B260">
         <v>1859.2</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>1781.6</v>
+        <v>1793.8</v>
       </c>
       <c r="B261">
         <v>1857</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262">
-        <v>1780.5</v>
+        <v>1794.4</v>
       </c>
       <c r="B262">
         <v>1862.3</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263">
-        <v>1779.5</v>
+        <v>1793.2</v>
       </c>
       <c r="B263">
         <v>1859.8</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264">
-        <v>1778.5</v>
+        <v>1793.7</v>
       </c>
       <c r="B264">
         <v>1858.9</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265">
-        <v>1778.4</v>
+        <v>1794.9</v>
       </c>
       <c r="B265">
         <v>1859.4</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266">
-        <v>1778.4</v>
+        <v>1794.4</v>
       </c>
       <c r="B266">
         <v>1858</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267">
-        <v>1778.9</v>
+        <v>1794.7</v>
       </c>
       <c r="B267">
         <v>1858.8</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268">
-        <v>1778.2</v>
+        <v>1795.1</v>
       </c>
       <c r="B268">
         <v>1857.3</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269">
-        <v>1777.3</v>
+        <v>1794.9</v>
       </c>
       <c r="B269">
         <v>1857</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270">
-        <v>1777.5</v>
+        <v>1794.6</v>
       </c>
       <c r="B270">
         <v>1855</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271">
-        <v>1777.6</v>
+        <v>1793.9</v>
       </c>
       <c r="B271">
         <v>1854.3</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272">
-        <v>1777.8</v>
+        <v>1793.4</v>
       </c>
       <c r="B272">
         <v>1852.4</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273">
-        <v>1777.8</v>
+        <v>1793.1</v>
       </c>
       <c r="B273">
         <v>1854.5</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274">
-        <v>1778.6</v>
+        <v>1792.8</v>
       </c>
       <c r="B274">
         <v>1857.8</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275">
-        <v>1777.9</v>
+        <v>1791.6</v>
       </c>
       <c r="B275">
         <v>1858.5</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276">
-        <v>1776.2</v>
+        <v>1791.5</v>
       </c>
       <c r="B276">
         <v>1858.1</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277">
-        <v>1776</v>
+        <v>1791</v>
       </c>
       <c r="B277">
         <v>1857.3</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278">
-        <v>1775</v>
+        <v>1790.7</v>
       </c>
       <c r="B278">
         <v>1855.6</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279">
-        <v>1775.6</v>
+        <v>1791.1</v>
       </c>
       <c r="B279">
         <v>1854.9</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280">
-        <v>1776.1</v>
+        <v>1791.8</v>
       </c>
       <c r="B280">
         <v>1853.6</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281">
-        <v>1773.6</v>
+        <v>1791.9</v>
       </c>
       <c r="B281">
         <v>1848.7</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282">
-        <v>1774.9</v>
+        <v>1791.3</v>
       </c>
       <c r="B282">
         <v>1844.7</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283">
-        <v>1776.9</v>
+        <v>1791</v>
       </c>
       <c r="B283">
         <v>1847.9</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284">
-        <v>1774.7</v>
+        <v>1790.7</v>
       </c>
       <c r="B284">
         <v>1848.7</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285">
-        <v>1775.2</v>
+        <v>1791.2</v>
       </c>
       <c r="B285">
         <v>1848.6</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286">
-        <v>1774.9</v>
+        <v>1791.6</v>
       </c>
       <c r="B286">
         <v>1839.1</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287">
-        <v>1776.4</v>
+        <v>1791.6</v>
       </c>
       <c r="B287">
         <v>1838.5</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288">
-        <v>1778.5</v>
+        <v>1791.8</v>
       </c>
       <c r="B288">
         <v>1839.4</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289">
-        <v>1778.6</v>
+        <v>1791.9</v>
       </c>
       <c r="B289">
         <v>1843.7</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290">
-        <v>1777.4</v>
+        <v>1791.5</v>
       </c>
       <c r="B290">
         <v>1840.7</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291">
-        <v>1777.5</v>
+        <v>1790.9</v>
       </c>
       <c r="B291">
         <v>1841.7</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292">
-        <v>1776.2</v>
+        <v>1791.1</v>
       </c>
       <c r="B292">
         <v>1842.7</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293">
-        <v>1776.3</v>
+        <v>1791.1</v>
       </c>
       <c r="B293">
         <v>1840.6</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294">
-        <v>1775.5</v>
+        <v>1790.5</v>
       </c>
       <c r="B294">
         <v>1838.4</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295">
-        <v>1777.4</v>
+        <v>1791.8</v>
       </c>
       <c r="B295">
         <v>1842.1</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296">
-        <v>1777.4</v>
+        <v>1792.4</v>
       </c>
       <c r="B296">
         <v>1840.3</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297">
-        <v>1778.1</v>
+        <v>1791.2</v>
       </c>
       <c r="B297">
         <v>1843.2</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298">
-        <v>1777.7</v>
+        <v>1790.9</v>
       </c>
       <c r="B298">
         <v>1844.2</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299">
-        <v>1776.7</v>
+        <v>1791.4</v>
       </c>
       <c r="B299">
         <v>1847.2</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300">
-        <v>1776.6</v>
+        <v>1791.2</v>
       </c>
       <c r="B300">
         <v>1847.9</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301">
-        <v>1776.7</v>
+        <v>1790.8</v>
       </c>
       <c r="B301">
         <v>1855</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302">
-        <v>1776.7</v>
+        <v>1791.3</v>
       </c>
       <c r="B302">
         <v>1849</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303">
-        <v>1777</v>
+        <v>1790.1</v>
       </c>
       <c r="B303">
         <v>1844</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304">
-        <v>1777.8</v>
+        <v>1790</v>
       </c>
       <c r="B304">
         <v>1846.9</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305">
-        <v>1777.4</v>
+        <v>1789.4</v>
       </c>
       <c r="B305">
         <v>1846.3</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306">
-        <v>1777.6</v>
+        <v>1789.2</v>
       </c>
       <c r="B306">
         <v>1846.7</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307">
-        <v>1777.5</v>
+        <v>1789.4</v>
       </c>
       <c r="B307">
         <v>1851.8</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308">
-        <v>1777</v>
+        <v>1790.7</v>
       </c>
       <c r="B308">
         <v>1851.8</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309">
-        <v>1777.2</v>
+        <v>1791.4</v>
       </c>
       <c r="B309">
         <v>1851.8</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310">
-        <v>1776.3</v>
+        <v>1791.4</v>
       </c>
       <c r="B310">
         <v>1851.4</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311">
-        <v>1776</v>
+        <v>1791.7</v>
       </c>
       <c r="B311">
         <v>1852.6</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312">
-        <v>1775.3</v>
+        <v>1791.1</v>
       </c>
       <c r="B312">
         <v>1849.1</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313">
-        <v>1774.2</v>
+        <v>1790.5</v>
       </c>
       <c r="B313">
         <v>1848.7</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314">
-        <v>1774.4</v>
+        <v>1791.4</v>
       </c>
       <c r="B314">
         <v>1852</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315">
-        <v>1773.1</v>
+        <v>1792.3</v>
       </c>
       <c r="B315">
         <v>1850.3</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316">
-        <v>1773.5</v>
+        <v>1790.3</v>
       </c>
       <c r="B316">
         <v>1854.8</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317">
-        <v>1776.2</v>
+        <v>1789.8</v>
       </c>
       <c r="B317">
         <v>1853.7</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318">
-        <v>1776.4</v>
+        <v>1790.1</v>
       </c>
       <c r="B318">
         <v>1848.6</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319">
-        <v>1777.4</v>
+        <v>1789.9</v>
       </c>
       <c r="B319">
         <v>1847.4</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320">
-        <v>1780.7</v>
+        <v>1790</v>
       </c>
       <c r="B320">
         <v>1837.9</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="B321">
         <v>1838.5</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322">
-        <v>1779.8</v>
+        <v>1789.8</v>
       </c>
       <c r="B322">
         <v>1828.3</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323">
-        <v>1781.6</v>
+        <v>1789.8</v>
       </c>
       <c r="B323">
         <v>1830.8</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324">
-        <v>1783.4</v>
+        <v>1789.2</v>
       </c>
       <c r="B324">
         <v>1831.2</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325">
-        <v>1783.8</v>
+        <v>1788.9</v>
       </c>
       <c r="B325">
         <v>1828.2</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326">
-        <v>1787.2</v>
+        <v>1789.7</v>
       </c>
       <c r="B326">
         <v>1828.2</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327">
-        <v>1787</v>
+        <v>1789.9</v>
       </c>
       <c r="B327">
         <v>1825.6</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328">
-        <v>1788.5</v>
+        <v>1789.5</v>
       </c>
       <c r="B328">
         <v>1827.7</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329">
-        <v>1785</v>
+        <v>1789.1</v>
       </c>
       <c r="B329">
         <v>1810.2</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330">
-        <v>1787.1</v>
+        <v>1788.9</v>
       </c>
       <c r="B330">
         <v>1819.9</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331">
-        <v>1788</v>
+        <v>1789.4</v>
       </c>
       <c r="B331">
         <v>1824.1</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332">
-        <v>1790</v>
+        <v>1789.3</v>
       </c>
       <c r="B332">
         <v>1827.6</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333">
-        <v>1790.9</v>
+        <v>1789.7</v>
       </c>
       <c r="B333">
         <v>1827.1</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334">
-        <v>1790.4</v>
+        <v>1790</v>
       </c>
       <c r="B334">
         <v>1827.8</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335">
-        <v>1788.9</v>
+        <v>1789.7</v>
       </c>
       <c r="B335">
         <v>1837.3</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336">
-        <v>1789.2</v>
+        <v>1790.4</v>
       </c>
       <c r="B336">
         <v>1837.1</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337">
-        <v>1788.3</v>
+        <v>1789.6</v>
       </c>
       <c r="B337">
         <v>1833.9</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338">
-        <v>1786.1</v>
+        <v>1790</v>
       </c>
       <c r="B338">
         <v>1832.7</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339">
-        <v>1786.9</v>
+        <v>1791.7</v>
       </c>
       <c r="B339">
         <v>1830.5</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340">
-        <v>1787.8</v>
+        <v>1791.9</v>
       </c>
       <c r="B340">
         <v>1831.9</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341">
-        <v>1788.3</v>
+        <v>1792.9</v>
       </c>
       <c r="B341">
         <v>1833.2</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A342">
-        <v>1787.6</v>
+        <v>1793.1</v>
       </c>
       <c r="B342">
         <v>1834.5</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A343">
-        <v>1787.8</v>
+        <v>1792.9</v>
       </c>
       <c r="B343">
         <v>1834.4</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A344">
-        <v>1788.1</v>
+        <v>1793.8</v>
       </c>
       <c r="B344">
         <v>1833.1</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345">
-        <v>1788.6</v>
+        <v>1795</v>
       </c>
       <c r="B345">
         <v>1836.1</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346">
-        <v>1788.6</v>
+        <v>1795.3</v>
       </c>
       <c r="B346">
         <v>1837.4</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347">
-        <v>1788</v>
+        <v>1795.3</v>
       </c>
       <c r="B347">
         <v>1836.8</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348">
-        <v>1788.1</v>
+        <v>1796</v>
       </c>
       <c r="B348">
         <v>1836.6</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349">
-        <v>1789.8</v>
+        <v>1796.4</v>
       </c>
       <c r="B349">
         <v>1838.9</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350">
-        <v>1788.7</v>
+        <v>1796.4</v>
       </c>
       <c r="B350">
         <v>1840.1</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351">
-        <v>1789.4</v>
+        <v>1795.5</v>
       </c>
       <c r="B351">
         <v>1838.4</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A352">
-        <v>1788.9</v>
+        <v>1795.9</v>
       </c>
       <c r="B352">
         <v>1836.4</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353">
-        <v>1788.1</v>
+        <v>1796.2</v>
       </c>
       <c r="B353">
         <v>1838.8</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354">
-        <v>1788.6</v>
+        <v>1796.7</v>
       </c>
       <c r="B354">
         <v>1836.6</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355">
-        <v>1788.5</v>
+        <v>1796.6</v>
       </c>
       <c r="B355">
         <v>1839.7</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356">
-        <v>1789</v>
+        <v>1796.7</v>
       </c>
       <c r="B356">
         <v>1836.8</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="B357">
         <v>1842.4</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358">
-        <v>1789.6</v>
+        <v>1797.4</v>
       </c>
       <c r="B358">
         <v>1842.3</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359">
-        <v>1789.7</v>
+        <v>1797.5</v>
       </c>
       <c r="B359">
         <v>1844</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A360">
-        <v>1789.7</v>
+        <v>1797.3</v>
       </c>
       <c r="B360">
         <v>1841.9</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361">
-        <v>1789.5</v>
+        <v>1797.3</v>
       </c>
       <c r="B361">
         <v>1836.7</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362">
-        <v>1789.9</v>
+        <v>1796.9</v>
       </c>
       <c r="B362">
         <v>1839</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363">
-        <v>1789.5</v>
+        <v>1798.7</v>
       </c>
       <c r="B363">
         <v>1834.7</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364">
-        <v>1789.1</v>
+        <v>1799.2</v>
       </c>
       <c r="B364">
         <v>1838.5</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365">
-        <v>1788.8</v>
+        <v>1801.8</v>
       </c>
       <c r="B365">
         <v>1840.7</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366">
-        <v>1788.8</v>
+        <v>1802</v>
       </c>
       <c r="B366">
         <v>1842.1</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A367">
-        <v>1788.4</v>
+        <v>1801.4</v>
       </c>
       <c r="B367">
         <v>1839.9</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A368">
-        <v>1788.7</v>
+        <v>1801.2</v>
       </c>
       <c r="B368">
         <v>1838.6</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A369">
-        <v>1789.3</v>
+        <v>1799.5</v>
       </c>
       <c r="B369">
         <v>1839.5</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370">
-        <v>1789.1</v>
+        <v>1802.1</v>
       </c>
       <c r="B370">
         <v>1839.3</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371">
-        <v>1788.7</v>
+        <v>1798.8</v>
       </c>
       <c r="B371">
         <v>1840.3</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372">
-        <v>1788.8</v>
+        <v>1795.4</v>
       </c>
       <c r="B372">
         <v>1842.9</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373">
-        <v>1788.9</v>
+        <v>1796.2</v>
       </c>
       <c r="B373">
         <v>1845.5</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374">
-        <v>1788.6</v>
+        <v>1793.6</v>
       </c>
       <c r="B374">
         <v>1849.4</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375">
-        <v>1789.1</v>
+        <v>1797.6</v>
       </c>
       <c r="B375">
         <v>1848.2</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376">
-        <v>1789.1</v>
+        <v>1798.9</v>
       </c>
       <c r="B376">
         <v>1849.1</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A377">
-        <v>1789.8</v>
+        <v>1800.3</v>
       </c>
       <c r="B377">
         <v>1850.7</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A378">
-        <v>1789.5</v>
+        <v>1797.3</v>
       </c>
       <c r="B378">
         <v>1852.1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A379">
-        <v>1789.2</v>
+        <v>1794.8</v>
       </c>
       <c r="B379">
         <v>1855.2</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A380">
-        <v>1788.8</v>
+        <v>1791.7</v>
       </c>
       <c r="B380">
         <v>1854.6</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A381">
-        <v>1788.6</v>
+        <v>1790.6</v>
       </c>
       <c r="B381">
         <v>1854.1</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382">
-        <v>1789.3</v>
+        <v>1790.8</v>
       </c>
       <c r="B382">
         <v>1852.9</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383">
-        <v>1788.4</v>
+        <v>1790.5</v>
       </c>
       <c r="B383">
         <v>1847.8</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384">
-        <v>1788.5</v>
+        <v>1788.3</v>
       </c>
       <c r="B384">
         <v>1841.7</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386">
-        <v>1789</v>
+        <v>1790.6</v>
       </c>
       <c r="B386">
         <v>1854.9</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387">
-        <v>1789</v>
+        <v>1792.3</v>
       </c>
       <c r="B387">
         <v>1866.6</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A388">
-        <v>1788.5</v>
+        <v>1792.4</v>
       </c>
       <c r="B388">
         <v>1866.6</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A389">
-        <v>1789.4</v>
+        <v>1793.8</v>
       </c>
       <c r="B389">
         <v>1863</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A390">
-        <v>1788.6</v>
+        <v>1792.7</v>
       </c>
       <c r="B390">
         <v>1868.5</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391">
-        <v>1788.4</v>
+        <v>1792.9</v>
       </c>
       <c r="B391">
         <v>1867.9</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392">
-        <v>1787</v>
+        <v>1794.2</v>
       </c>
       <c r="B392">
         <v>1869.4</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393">
-        <v>1787.2</v>
+        <v>1793.8</v>
       </c>
       <c r="B393">
         <v>1872</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394">
-        <v>1786.7</v>
+        <v>1794.1</v>
       </c>
       <c r="B394">
         <v>1869.9</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395">
-        <v>1787.9</v>
+        <v>1795.9</v>
       </c>
       <c r="B395">
         <v>1867.9</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396">
-        <v>1787.9</v>
+        <v>1794.9</v>
       </c>
       <c r="B396">
         <v>1869</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397">
-        <v>1788</v>
+        <v>1795.5</v>
       </c>
       <c r="B397">
         <v>1871.4</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398">
-        <v>1787.4</v>
+        <v>1795.6</v>
       </c>
       <c r="B398">
         <v>1872.4</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399">
-        <v>1789</v>
+        <v>1798.8</v>
       </c>
       <c r="B399">
         <v>1870.9</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A400">
-        <v>1788.4</v>
+        <v>1799.5</v>
       </c>
       <c r="B400">
         <v>1874.2</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401">
-        <v>1788.9</v>
+        <v>1800.1</v>
       </c>
       <c r="B401">
         <v>1873.7</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402">
-        <v>1788.5</v>
+        <v>1800</v>
       </c>
       <c r="B402">
         <v>1866.8</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403">
-        <v>1787.6</v>
+        <v>1798.6</v>
       </c>
       <c r="B403">
         <v>1871</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A404">
-        <v>1788.1</v>
+        <v>1799</v>
       </c>
       <c r="B404">
         <v>1871</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A405">
-        <v>1787.9</v>
+        <v>1798.5</v>
       </c>
       <c r="B405">
         <v>1869.7</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A406">
-        <v>1787.7</v>
+        <v>1797.7</v>
       </c>
       <c r="B406">
         <v>1870.6</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407">
-        <v>1788</v>
+        <v>1797.6</v>
       </c>
       <c r="B407">
         <v>1866.8</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408">
-        <v>1787.7</v>
+        <v>1797.5</v>
       </c>
       <c r="B408">
         <v>1860.2</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409">
-        <v>1787.9</v>
+        <v>1796.2</v>
       </c>
       <c r="B409">
         <v>1863.9</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410">
-        <v>1787.4</v>
+        <v>1796.7</v>
       </c>
       <c r="B410">
         <v>1863.7</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411">
-        <v>1787.7</v>
+        <v>1793.6</v>
       </c>
       <c r="B411">
         <v>1863.3</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412">
-        <v>1787.8</v>
+        <v>1795.2</v>
       </c>
       <c r="B412">
         <v>1864.6</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A413">
-        <v>1788.7</v>
+        <v>1795.5</v>
       </c>
       <c r="B413">
         <v>1867.4</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A414">
-        <v>1788.7</v>
+        <v>1796.4</v>
       </c>
       <c r="B414">
         <v>1869.2</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A415">
-        <v>1788.9</v>
+        <v>1796.7</v>
       </c>
       <c r="B415">
         <v>1868.7</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416">
-        <v>1792.9</v>
+        <v>1797.8</v>
       </c>
       <c r="B416">
         <v>1869.9</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417">
-        <v>1793.5</v>
+        <v>1796.7</v>
       </c>
       <c r="B417">
         <v>1869.5</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418">
-        <v>1793.1</v>
+        <v>1796.1</v>
       </c>
       <c r="B418">
         <v>1866.6</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419">
-        <v>1793.1</v>
+        <v>1796.2</v>
       </c>
       <c r="B419">
         <v>1864.4</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420">
-        <v>1793.8</v>
+        <v>1796</v>
       </c>
       <c r="B420">
         <v>1860.6</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421">
-        <v>1793.4</v>
+        <v>1795.9</v>
       </c>
       <c r="B421">
         <v>1861</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422">
-        <v>1792.9</v>
+        <v>1796.3</v>
       </c>
       <c r="B422">
         <v>1863.4</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A423">
-        <v>1792.9</v>
+        <v>1796.1</v>
       </c>
       <c r="B423">
         <v>1861.9</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A424">
-        <v>1792.5</v>
+        <v>1795.5</v>
       </c>
       <c r="B424">
         <v>1860.9</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A425">
-        <v>1795.3</v>
+        <v>1795.1</v>
       </c>
       <c r="B425">
         <v>1860.6</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A426">
-        <v>1796.3</v>
+        <v>1794.6</v>
       </c>
       <c r="B426">
         <v>1861.4</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427">
-        <v>1796.7</v>
+        <v>1796.1</v>
       </c>
       <c r="B427">
         <v>1858.5</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428">
-        <v>1795.7</v>
+        <v>1796.8</v>
       </c>
       <c r="B428">
         <v>1851.3</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429">
-        <v>1795</v>
+        <v>1797.2</v>
       </c>
       <c r="B429">
         <v>1848.7</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430">
-        <v>1794.7</v>
+        <v>1797.1</v>
       </c>
       <c r="B430">
         <v>1842.4</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431">
-        <v>1793.7</v>
+        <v>1796.7</v>
       </c>
       <c r="B431">
         <v>1842.3</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432">
-        <v>1794.3</v>
+        <v>1797.2</v>
       </c>
       <c r="B432">
         <v>1850.2</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433">
-        <v>1795.3</v>
+        <v>1796.5</v>
       </c>
       <c r="B433">
         <v>1855.5</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A434">
-        <v>1795.3</v>
+        <v>1796.6</v>
       </c>
       <c r="B434">
         <v>1854.5</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A435">
-        <v>1795.1</v>
+        <v>1797.8</v>
       </c>
       <c r="B435">
         <v>1855</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A436">
-        <v>1796.6</v>
+        <v>1798</v>
       </c>
       <c r="B436">
         <v>1855.5</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437">
-        <v>1795.8</v>
+        <v>1797.2</v>
       </c>
       <c r="B437">
         <v>1855</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438">
-        <v>1795.5</v>
+        <v>1796.5</v>
       </c>
       <c r="B438">
         <v>1853.8</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439">
-        <v>1795.2</v>
+        <v>1797.2</v>
       </c>
       <c r="B439">
         <v>1855.5</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440">
-        <v>1796.2</v>
+        <v>1797.7</v>
       </c>
       <c r="B440">
         <v>1856</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441">
-        <v>1796.4</v>
+        <v>1798.1</v>
       </c>
       <c r="B441">
         <v>1857.8</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442">
-        <v>1795.8</v>
+        <v>1795.2</v>
       </c>
       <c r="B442">
         <v>1854.4</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443">
-        <v>1795.7</v>
+        <v>1796.4</v>
       </c>
       <c r="B443">
         <v>1853.7</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A444">
-        <v>1796.1</v>
+        <v>1797.6</v>
       </c>
       <c r="B444">
         <v>1853.2</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445">
-        <v>1796.2</v>
+        <v>1796.5</v>
       </c>
       <c r="B445">
         <v>1853.7</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446">
-        <v>1796.3</v>
+        <v>1796.2</v>
       </c>
       <c r="B446">
         <v>1852.4</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447">
-        <v>1796.8</v>
+        <v>1795.9</v>
       </c>
       <c r="B447">
         <v>1849.6</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448">
-        <v>1796.9</v>
+        <v>1797.5</v>
       </c>
       <c r="B448">
         <v>1853</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449">
-        <v>1796.4</v>
+        <v>1798.2</v>
       </c>
       <c r="B449">
         <v>1851.4</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A450">
-        <v>1796</v>
+        <v>1799.2</v>
       </c>
       <c r="B450">
         <v>1855.4</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A451">
-        <v>1795.7</v>
+        <v>1799.6</v>
       </c>
       <c r="B451">
         <v>1862.3</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A452">
-        <v>1795.5</v>
+        <v>1801.5</v>
       </c>
       <c r="B452">
         <v>1862.7</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453">
-        <v>1794.3</v>
+        <v>1800.8</v>
       </c>
       <c r="B453">
         <v>1862.5</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454">
-        <v>1793.2</v>
+        <v>1800.8</v>
       </c>
       <c r="B454">
         <v>1864.4</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455">
-        <v>1793.8</v>
+        <v>1800.4</v>
       </c>
       <c r="B455">
         <v>1855.1</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456">
-        <v>1794.5</v>
+        <v>1800</v>
       </c>
       <c r="B456">
         <v>1851.1</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457">
-        <v>1794.3</v>
+        <v>1800</v>
       </c>
       <c r="B457">
         <v>1854.5</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458">
-        <v>1793.6</v>
+        <v>1799.9</v>
       </c>
       <c r="B458">
         <v>1857.6</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A459">
-        <v>1792.2</v>
+        <v>1799.5</v>
       </c>
       <c r="B459">
         <v>1856.1</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A460">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="B460">
         <v>1854.1</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A461">
-        <v>1792</v>
+        <v>1799.8</v>
       </c>
       <c r="B461">
         <v>1854.8</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462">
-        <v>1789.9</v>
+        <v>1798.8</v>
       </c>
       <c r="B462">
         <v>1855</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463">
-        <v>1790</v>
+        <v>1798.8</v>
       </c>
       <c r="B463">
         <v>1854.7</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464">
-        <v>1792</v>
+        <v>1798.1</v>
       </c>
       <c r="B464">
         <v>1853.7</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465">
-        <v>1793.4</v>
+        <v>1799.3</v>
       </c>
       <c r="B465">
         <v>1857.7</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466">
-        <v>1791.6</v>
+        <v>1799.4</v>
       </c>
       <c r="B466">
         <v>1859.8</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467">
-        <v>1789.6</v>
+        <v>1800.4</v>
       </c>
       <c r="B467">
         <v>1859.3</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468">
-        <v>1784.8</v>
+        <v>1804.5</v>
       </c>
       <c r="B468">
         <v>1855.5</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469">
-        <v>1788.5</v>
+        <v>1805</v>
       </c>
       <c r="B469">
         <v>1856.2</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470">
-        <v>1786.9</v>
+        <v>1804.4</v>
       </c>
       <c r="B470">
         <v>1854</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A471">
-        <v>1788.1</v>
+        <v>1804.4</v>
       </c>
       <c r="B471">
         <v>1849.9</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472">
-        <v>1785.1</v>
+        <v>1803.1</v>
       </c>
       <c r="B472">
         <v>1853.7</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473">
-        <v>1785.8</v>
+        <v>1803.4</v>
       </c>
       <c r="B473">
         <v>1851.7</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474">
-        <v>1784.2</v>
+        <v>1804.2</v>
       </c>
       <c r="B474">
         <v>1848.4</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475">
-        <v>1784.5</v>
+        <v>1804.7</v>
       </c>
       <c r="B475">
         <v>1852</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476">
-        <v>1783.7</v>
+        <v>1805.4</v>
       </c>
       <c r="B476">
         <v>1854.5</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477">
-        <v>1782.8</v>
+        <v>1804.2</v>
       </c>
       <c r="B477">
         <v>1856.3</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478">
-        <v>1784.4</v>
+        <v>1803.3</v>
       </c>
       <c r="B478">
         <v>1855.4</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479">
-        <v>1784.7</v>
+        <v>1802.9</v>
       </c>
       <c r="B479">
         <v>1851.7</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A480">
-        <v>1785.1</v>
+        <v>1803.2</v>
       </c>
       <c r="B480">
         <v>1850.9</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A481">
-        <v>1785.4</v>
+        <v>1803</v>
       </c>
       <c r="B481">
         <v>1851.2</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A482">
-        <v>1784.8</v>
+        <v>1803.5</v>
       </c>
       <c r="B482">
         <v>1850.3</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483">
-        <v>1784.9</v>
+        <v>1801.8</v>
       </c>
       <c r="B483">
         <v>1850.2</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484">
-        <v>1784.3</v>
+        <v>1803.6</v>
       </c>
       <c r="B484">
         <v>1850</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485">
-        <v>1784.8</v>
+        <v>1804.8</v>
       </c>
       <c r="B485">
         <v>1849.4</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486">
-        <v>1786.1</v>
+        <v>1804.1</v>
       </c>
       <c r="B486">
         <v>1849.8</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487">
-        <v>1787.5</v>
+        <v>1803.4</v>
       </c>
       <c r="B487">
         <v>1847.7</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488">
-        <v>1787</v>
+        <v>1803.4</v>
       </c>
       <c r="B488">
         <v>1844.7</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489">
-        <v>1787.1</v>
+        <v>1803.4</v>
       </c>
       <c r="B489">
         <v>1846.2</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A490">
-        <v>1786</v>
+        <v>1802.8</v>
       </c>
       <c r="B490">
         <v>1843.6</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A491">
-        <v>1785.8</v>
+        <v>1802.5</v>
       </c>
       <c r="B491">
         <v>1845.6</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A492">
-        <v>1786.2</v>
+        <v>1801.8</v>
       </c>
       <c r="B492">
         <v>1849.5</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493">
-        <v>1786.1</v>
+        <v>1800.8</v>
       </c>
       <c r="B493">
         <v>1847.1</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494">
-        <v>1785.2</v>
+        <v>1799.2</v>
       </c>
       <c r="B494">
         <v>1849.6</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495">
-        <v>1784.8</v>
+        <v>1798.3</v>
       </c>
       <c r="B495">
         <v>1845.7</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A496">
-        <v>1785</v>
+        <v>1797</v>
       </c>
       <c r="B496">
         <v>1844</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A497">
-        <v>1784.5</v>
+        <v>1797.3</v>
       </c>
       <c r="B497">
         <v>1844.7</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A498">
-        <v>1784.7</v>
+        <v>1796.2</v>
       </c>
       <c r="B498">
         <v>1839.1</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499">
-        <v>1784.7</v>
+        <v>1795.1</v>
       </c>
       <c r="B499">
         <v>1838.6</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500">
-        <v>1784.9</v>
+        <v>1795.5</v>
       </c>
       <c r="B500">
         <v>1840.6</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501">
-        <v>1786</v>
+        <v>1797.1</v>
       </c>
       <c r="B501">
         <v>1834.8</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502">
-        <v>1787.2</v>
+        <v>1797.4</v>
       </c>
       <c r="B502">
         <v>1847.6</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503">
-        <v>1787.1</v>
+        <v>1798.1</v>
       </c>
       <c r="B503">
         <v>1844</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504">
-        <v>1787.1</v>
+        <v>1799</v>
       </c>
       <c r="B504">
         <v>1844.1</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A505">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="B505">
         <v>1844.3</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A506">
-        <v>1787.1</v>
+        <v>1799.4</v>
       </c>
       <c r="B506">
         <v>1840</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A507">
-        <v>1787.6</v>
+        <v>1800.5</v>
       </c>
       <c r="B507">
         <v>1839.5</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508">
-        <v>1788.1</v>
+        <v>1800.8</v>
       </c>
       <c r="B508">
         <v>1842.3</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509">
-        <v>1787.9</v>
+        <v>1799.8</v>
       </c>
       <c r="B509">
         <v>1838.4</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510">
-        <v>1787.6</v>
+        <v>1797.7</v>
       </c>
       <c r="B510">
         <v>1838.6</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511">
-        <v>1787.4</v>
+        <v>1795</v>
       </c>
       <c r="B511">
         <v>1834.5</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512">
-        <v>1787.9</v>
+        <v>1795.1</v>
       </c>
       <c r="B512">
         <v>1835</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513">
-        <v>1788.6</v>
+        <v>1795.6</v>
       </c>
       <c r="B513">
         <v>1835.4</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514">
-        <v>1788.1</v>
+        <v>1796.3</v>
       </c>
       <c r="B514">
         <v>1835.1</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A515">
-        <v>1787.9</v>
+        <v>1796</v>
       </c>
       <c r="B515">
         <v>1834.5</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A516">
-        <v>1787.5</v>
+        <v>1796</v>
       </c>
       <c r="B516">
         <v>1834.8</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A517">
-        <v>1787.5</v>
+        <v>1795.1</v>
       </c>
       <c r="B517">
         <v>1833.5</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A518">
-        <v>1787.3</v>
+        <v>1796.6</v>
       </c>
       <c r="B518">
         <v>1836.2</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A519">
-        <v>1787.3</v>
+        <v>1795.9</v>
       </c>
       <c r="B519">
         <v>1838.6</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A520">
-        <v>1788</v>
+        <v>1796.1</v>
       </c>
       <c r="B520">
         <v>1841.1</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A521">
-        <v>1787.8</v>
+        <v>1797.3</v>
       </c>
       <c r="B521">
         <v>1838.5</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A522">
-        <v>1788.6</v>
+        <v>1796.7</v>
       </c>
       <c r="B522">
         <v>1838.4</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A523">
-        <v>1787.9</v>
+        <v>1798.1</v>
       </c>
       <c r="B523">
         <v>1856.1</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A524">
-        <v>1787.4</v>
+        <v>1798.5</v>
       </c>
       <c r="B524">
         <v>1853.9</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A525">
-        <v>1787</v>
+        <v>1795.8</v>
       </c>
       <c r="B525">
         <v>1857.1</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A526">
-        <v>1787.6</v>
+        <v>1797.1</v>
       </c>
       <c r="B526">
         <v>1844.3</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A527">
-        <v>1789.3</v>
+        <v>1798.1</v>
       </c>
       <c r="B527">
         <v>1837.6</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A528">
-        <v>1789.7</v>
+        <v>1795</v>
       </c>
       <c r="B528">
         <v>1839.9</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529">
-        <v>1790.6</v>
+        <v>1793.4</v>
       </c>
       <c r="B529">
         <v>1842</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530">
-        <v>1790.5</v>
+        <v>1794.3</v>
       </c>
       <c r="B530">
         <v>1840.8</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531">
-        <v>1790.7</v>
+        <v>1793.9</v>
       </c>
       <c r="B531">
         <v>1841.8</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532">
-        <v>1791.6</v>
+        <v>1793.7</v>
       </c>
       <c r="B532">
         <v>1845.8</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533">
-        <v>1790.6</v>
+        <v>1792.8</v>
       </c>
       <c r="B533">
         <v>1842.1</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534">
-        <v>1790.4</v>
+        <v>1794</v>
       </c>
       <c r="B534">
         <v>1844.6</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535">
-        <v>1790.9</v>
+        <v>1793.5</v>
       </c>
       <c r="B535">
         <v>1843.7</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A536">
-        <v>1791.5</v>
+        <v>1793.1</v>
       </c>
       <c r="B536">
         <v>1843.7</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A537">
-        <v>1792.2</v>
+        <v>1794.1</v>
       </c>
       <c r="B537">
         <v>1844.4</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A539">
-        <v>1793.6</v>
+        <v>1792</v>
       </c>
       <c r="B539">
         <v>1851.9</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A540">
-        <v>1792.8</v>
+        <v>1792.1</v>
       </c>
       <c r="B540">
         <v>1847.9</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A541">
-        <v>1793</v>
+        <v>1790.9</v>
       </c>
       <c r="B541">
         <v>1847.6</v>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A542">
-        <v>1792.1</v>
+        <v>1790.7</v>
       </c>
       <c r="B542">
         <v>1853.9</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A543">
-        <v>1791.7</v>
+        <v>1790.2</v>
       </c>
       <c r="B543">
         <v>1860.2</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A544">
-        <v>1792.1</v>
+        <v>1790.4</v>
       </c>
       <c r="B544">
         <v>1864.7</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A545">
-        <v>1792.2</v>
+        <v>1790</v>
       </c>
       <c r="B545">
         <v>1868.3</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A546">
-        <v>1791.3</v>
+        <v>1791.4</v>
       </c>
       <c r="B546">
         <v>1875.1</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A547">
-        <v>1791.5</v>
+        <v>1791.8</v>
       </c>
       <c r="B547">
         <v>1867.7</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A548">
-        <v>1791.2</v>
+        <v>1791.8</v>
       </c>
       <c r="B548">
         <v>1860.4</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A549">
-        <v>1790.8</v>
+        <v>1790.7</v>
       </c>
       <c r="B549">
         <v>1859.8</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A550">
-        <v>1791.3</v>
+        <v>1790.6</v>
       </c>
       <c r="B550">
         <v>1854.3</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A551">
-        <v>1791.8</v>
+        <v>1789.7</v>
       </c>
       <c r="B551">
         <v>1853.5</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A552">
-        <v>1790.7</v>
+        <v>1790.1</v>
       </c>
       <c r="B552">
         <v>1851.9</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A553">
-        <v>1790.7</v>
+        <v>1790.1</v>
       </c>
       <c r="B553">
         <v>1844.1</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A554">
-        <v>1790.1</v>
+        <v>1789</v>
       </c>
       <c r="B554">
         <v>1849.8</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A555">
-        <v>1791.3</v>
+        <v>1789.9</v>
       </c>
       <c r="B555">
         <v>1858.4</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A556">
-        <v>1792.4</v>
+        <v>1789.6</v>
       </c>
       <c r="B556">
         <v>1857</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557">
-        <v>1793.1</v>
+        <v>1789.5</v>
       </c>
       <c r="B557">
         <v>1855.3</v>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558">
-        <v>1794.1</v>
+        <v>1789.2</v>
       </c>
       <c r="B558">
         <v>1864</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559">
-        <v>1793.5</v>
+        <v>1789</v>
       </c>
       <c r="B559">
         <v>1863.5</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560">
-        <v>1794.1</v>
+        <v>1788.2</v>
       </c>
       <c r="B560">
         <v>1862.7</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A561">
-        <v>1794.9</v>
+        <v>1788.9</v>
       </c>
       <c r="B561">
         <v>1862</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A562">
-        <v>1793.5</v>
+        <v>1789.4</v>
       </c>
       <c r="B562">
         <v>1867.5</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A563">
-        <v>1793.5</v>
+        <v>1789.4</v>
       </c>
       <c r="B563">
         <v>1864</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A564">
-        <v>1794.5</v>
+        <v>1789.9</v>
       </c>
       <c r="B564">
         <v>1865.3</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A565">
-        <v>1795</v>
+        <v>1789.7</v>
       </c>
       <c r="B565">
         <v>1864.4</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A566">
-        <v>1794.8</v>
+        <v>1789.9</v>
       </c>
       <c r="B566">
         <v>1862.8</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567">
-        <v>1793.6</v>
+        <v>1789.5</v>
       </c>
       <c r="B567">
         <v>1867.4</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568">
-        <v>1792</v>
+        <v>1789.4</v>
       </c>
       <c r="B568">
         <v>1864.6</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569">
-        <v>1789.8</v>
+        <v>1789.6</v>
       </c>
       <c r="B569">
         <v>1867.5</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570">
-        <v>1788.2</v>
+        <v>1789.9</v>
       </c>
       <c r="B570">
         <v>1867.4</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571">
-        <v>1789.4</v>
+        <v>1788.9</v>
       </c>
       <c r="B571">
         <v>1863.3</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A572">
-        <v>1789.3</v>
+        <v>1788.8</v>
       </c>
       <c r="B572">
         <v>1865.6</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A573">
-        <v>1789.8</v>
+        <v>1787.9</v>
       </c>
       <c r="B573">
         <v>1868.3</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A574">
-        <v>1789.3</v>
+        <v>1788.2</v>
       </c>
       <c r="B574">
         <v>1862.9</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575">
-        <v>1789</v>
+        <v>1787.9</v>
       </c>
       <c r="B575">
         <v>1862.1</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576">
-        <v>1788.7</v>
+        <v>1788.1</v>
       </c>
       <c r="B576">
         <v>1861.9</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577">
-        <v>1789.7</v>
+        <v>1788</v>
       </c>
       <c r="B577">
         <v>1863.8</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578">
-        <v>1790.2</v>
+        <v>1788.6</v>
       </c>
       <c r="B578">
         <v>1860.3</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579">
-        <v>1790.1</v>
+        <v>1787.5</v>
       </c>
       <c r="B579">
         <v>1859.6</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580">
-        <v>1790</v>
+        <v>1789.1</v>
       </c>
       <c r="B580">
         <v>1864.9</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581">
-        <v>1789.7</v>
+        <v>1787.8</v>
       </c>
       <c r="B581">
         <v>1861</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A582">
-        <v>1789.7</v>
+        <v>1789.8</v>
       </c>
       <c r="B582">
         <v>1859.1</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A583">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B583">
         <v>1856</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A584">
-        <v>1790</v>
+        <v>1789.7</v>
       </c>
       <c r="B584">
         <v>1858.2</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585">
-        <v>1789.1</v>
+        <v>1791.3</v>
       </c>
       <c r="B585">
         <v>1857.3</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586">
-        <v>1787.5</v>
+        <v>1790.8</v>
       </c>
       <c r="B586">
         <v>1850.5</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587">
-        <v>1787</v>
+        <v>1790.6</v>
       </c>
       <c r="B587">
         <v>1852.2</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A588">
-        <v>1786.2</v>
+        <v>1790.9</v>
       </c>
       <c r="B588">
         <v>1852.1</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A589">
-        <v>1784.9</v>
+        <v>1790</v>
       </c>
       <c r="B589">
         <v>1850.9</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A590">
-        <v>1785.3</v>
+        <v>1791.4</v>
       </c>
       <c r="B590">
         <v>1844.1</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A591">
-        <v>1786.4</v>
+        <v>1792.2</v>
       </c>
       <c r="B591">
         <v>1844.8</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A592">
-        <v>1788.9</v>
+        <v>1792.9</v>
       </c>
       <c r="B592">
         <v>1838.8</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593">
-        <v>1789.1</v>
+        <v>1793.7</v>
       </c>
       <c r="B593">
         <v>1835.2</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594">
-        <v>1790.1</v>
+        <v>1793.6</v>
       </c>
       <c r="B594">
         <v>1834.1</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595">
-        <v>1791.8</v>
+        <v>1793.8</v>
       </c>
       <c r="B595">
         <v>1839</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A596">
-        <v>1791.8</v>
+        <v>1793.8</v>
       </c>
       <c r="B596">
         <v>1836.4</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A597">
-        <v>1790</v>
+        <v>1793.4</v>
       </c>
       <c r="B597">
         <v>1835.9</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A598">
-        <v>1790.1</v>
+        <v>1793.4</v>
       </c>
       <c r="B598">
         <v>1837.7</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A599">
-        <v>1791.1</v>
+        <v>1793.5</v>
       </c>
       <c r="B599">
         <v>1836.6</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600">
-        <v>1790.5</v>
+        <v>1793.3</v>
       </c>
       <c r="B600">
         <v>1838.5</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601">
-        <v>1789.4</v>
+        <v>1792.7</v>
       </c>
       <c r="B601">
         <v>1837.6</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602">
-        <v>1788.5</v>
+        <v>1792.5</v>
       </c>
       <c r="B602">
         <v>1840.3</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603">
-        <v>1788.3</v>
+        <v>1792.3</v>
       </c>
       <c r="B603">
         <v>1842.5</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604">
-        <v>1787.9</v>
+        <v>1792.7</v>
       </c>
       <c r="B604">
         <v>1843.3</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605">
-        <v>1786.5</v>
+        <v>1792.8</v>
       </c>
       <c r="B605">
         <v>1842.4</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A606">
-        <v>1785.7</v>
+        <v>1793.6</v>
       </c>
       <c r="B606">
         <v>1841.4</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A607">
-        <v>1784.1</v>
+        <v>1794.4</v>
       </c>
       <c r="B607">
         <v>1840.1</v>
